--- a/Unity/Assets/Config/Excel/SceneMonsterConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneMonsterConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>##var</t>
   </si>
@@ -44,6 +44,9 @@
     <t>Monsters</t>
   </si>
   <si>
+    <t>ReliveTime</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -78,6 +81,9 @@
   </si>
   <si>
     <t>怪物创建信息</t>
+  </si>
+  <si>
+    <t>死亡复活时间</t>
   </si>
   <si>
     <t>0,0,0</t>
@@ -455,12 +461,74 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -587,7 +655,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -599,34 +667,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -712,49 +780,72 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1082,28 +1173,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="22.125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="18.75" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="7"/>
+    <col min="2" max="2" width="17" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="22.125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="18.75" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1112,112 +1204,168 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:6">
-      <c r="A2" s="11" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:7">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:2">
-      <c r="A3" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:6">
+      <c r="A3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:6">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="B4" s="13"/>
+      <c r="E4" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" s="4" customFormat="1" spans="1:6">
-      <c r="A5" s="8" t="s">
+      <c r="F4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="8" t="s">
+    </row>
+    <row r="5" s="4" customFormat="1" spans="1:7">
+      <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" s="5" customFormat="1" spans="2:6">
+        <v>17</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" s="5" customFormat="1" spans="2:7">
       <c r="B6" s="5">
         <v>10001</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" s="5">
         <v>10</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="18">
         <v>1001</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="19">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" s="5" customFormat="1" spans="2:6">
+      <c r="G6" s="5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" s="5" customFormat="1" spans="2:7">
       <c r="B7" s="5">
         <v>10002</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" s="5">
         <v>10</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="18">
         <v>1002</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="19">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" s="5" customFormat="1"/>
-    <row r="9" s="5" customFormat="1"/>
-    <row r="10" s="5" customFormat="1"/>
-    <row r="11" s="5" customFormat="1"/>
-    <row r="12" s="5" customFormat="1"/>
-    <row r="13" s="5" customFormat="1"/>
-    <row r="14" s="5" customFormat="1"/>
-    <row r="15" s="5" customFormat="1"/>
-    <row r="16" s="5" customFormat="1"/>
-    <row r="17" s="5" customFormat="1"/>
-    <row r="18" s="5" customFormat="1"/>
-    <row r="19" s="5" customFormat="1"/>
-    <row r="20" s="5" customFormat="1"/>
+      <c r="G7" s="5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="1" spans="5:6">
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" s="5" customFormat="1" spans="5:6">
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" s="5" customFormat="1" spans="5:6">
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" s="5" customFormat="1" spans="5:6">
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" s="5" customFormat="1" spans="5:6">
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" s="5" customFormat="1" spans="5:6">
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" s="5" customFormat="1" spans="5:6">
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" s="5" customFormat="1" spans="5:6">
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" s="5" customFormat="1" spans="5:6">
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" s="5" customFormat="1" spans="5:6">
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" s="5" customFormat="1" spans="5:6">
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" s="5" customFormat="1" spans="5:6">
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" s="5" customFormat="1" spans="5:6">
+      <c r="E20" s="20"/>
+      <c r="F20" s="21"/>
+    </row>
     <row r="21" s="5" customFormat="1"/>
     <row r="22" s="5" customFormat="1"/>
     <row r="23" s="5" customFormat="1"/>
